--- a/slides/br_bcom_milagre.xlsx
+++ b/slides/br_bcom_milagre.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" dateCompatibility="false"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
@@ -31,7 +31,7 @@
     <t xml:space="preserve">Importações</t>
   </si>
   <si>
-    <t xml:space="preserve">Saldo comercial</t>
+    <t xml:space="preserve">Saldo da Balança Comercial</t>
   </si>
 </sst>
 </file>
